--- a/Recycling/Met_rec/metrec_Avg_hist_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_hist_Min.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>13486.09352961934</v>
+        <v>13486.09352961935</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>240901.5365950031</v>
+        <v>240901.536595003</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4887,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>831477.5295182779</v>
+        <v>831477.5295182781</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5481,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1847958.449639018</v>
+        <v>1847958.449639017</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6009,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1706494.216939883</v>
+        <v>1706494.216939882</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Avg_hist_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_hist_Min.xlsx
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2726255.098774446</v>
+        <v>2726255.098774447</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3.345293988247243</v>
+        <v>3.345293988247244</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>329.3795775006194</v>
+        <v>329.3795775006195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4736.044372663824</v>
+        <v>4736.044372663825</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4017.982475073959</v>
+        <v>4017.982475073958</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4416,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2627.87497914797</v>
+        <v>2627.874979147971</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>50252.49329415589</v>
+        <v>50252.49329415588</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4168.262218699218</v>
+        <v>4168.262218699219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>56092.87069859396</v>
+        <v>56092.87069859398</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5976,7 +5976,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>46242.5280085029</v>
+        <v>46242.52800850292</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7156,7 +7156,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>244125.4307216374</v>
+        <v>244125.4307216375</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7972,7 +7972,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>512402.0268454716</v>
+        <v>512402.0268454717</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8220,7 +8220,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>211755.5016748905</v>
+        <v>211755.5016748904</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>890842.8464347185</v>
+        <v>890842.8464347186</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>521286.3655210309</v>
+        <v>521286.3655210308</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>419388.5820487644</v>
+        <v>419388.5820487645</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1902306.093460134</v>
+        <v>1902306.093460135</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11352,7 +11352,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4488528.020791111</v>
+        <v>4488528.020791109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12708,7 +12708,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1033727.475176841</v>
+        <v>1033727.47517684</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5471230.991522748</v>
+        <v>5471230.991522747</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13072,7 +13072,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5168281.435212039</v>
+        <v>5168281.43521204</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13116,7 +13116,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>785891.7176724883</v>
+        <v>785891.7176724882</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13320,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>665095.2248360112</v>
+        <v>665095.2248360113</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13888,7 +13888,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4545776.992500295</v>
+        <v>4545776.992500294</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5930412.889047106</v>
+        <v>5930412.889047107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>929593.1687967607</v>
+        <v>929593.1687967606</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15636,7 +15636,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3391904.977975645</v>
+        <v>3391904.977975646</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3727506.109149725</v>
+        <v>3727506.109149726</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16380,7 +16380,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1972176.17930978</v>
+        <v>1972176.179309781</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16904,7 +16904,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2585629.049128412</v>
+        <v>2585629.049128413</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3701489.99699516</v>
+        <v>3701489.996995161</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17604,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1580155.694112493</v>
+        <v>1580155.694112492</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18216,7 +18216,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1281468.219256025</v>
+        <v>1281468.219256026</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18420,7 +18420,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1202406.694550288</v>
+        <v>1202406.694550289</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19512,7 +19512,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2233314.006658862</v>
+        <v>2233314.006658863</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20328,7 +20328,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2828185.531886064</v>
+        <v>2828185.531886063</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>11783485.21854691</v>
+        <v>11783485.21854692</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20824,7 +20824,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>12612539.27694554</v>
+        <v>12612539.27694553</v>
       </c>
     </row>
     <row r="13" spans="1:4">
